--- a/GraficiPrestazioni.xlsx
+++ b/GraficiPrestazioni.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\GitHub\ftp-over-gobackn-udp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019A3081-0FB4-4172-90BC-5205E8C84E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47EA37C-4B93-4FC1-A643-5ADDC7424B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA40647B-F143-4A9D-A594-5223857CDD2C}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{BA40647B-F143-4A9D-A594-5223857CDD2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="73">
   <si>
     <t>res=</t>
   </si>
@@ -193,6 +193,66 @@
   </si>
   <si>
     <t>res=8 pacchetti con 4 ore</t>
+  </si>
+  <si>
+    <t>res=3.95ms</t>
+  </si>
+  <si>
+    <t>res=3.96ms</t>
+  </si>
+  <si>
+    <t>res=2.75ms</t>
+  </si>
+  <si>
+    <t>res=14016.4ms</t>
+  </si>
+  <si>
+    <t>res=2.74ms</t>
+  </si>
+  <si>
+    <t>res=2.23</t>
+  </si>
+  <si>
+    <t>res=2.12ms</t>
+  </si>
+  <si>
+    <t>res=2.68ms</t>
+  </si>
+  <si>
+    <t>res=1318.25ms</t>
+  </si>
+  <si>
+    <t>res=3.89</t>
+  </si>
+  <si>
+    <t>res=3.44ms</t>
+  </si>
+  <si>
+    <t>res=1.97ms</t>
+  </si>
+  <si>
+    <t>res=2.23ms</t>
+  </si>
+  <si>
+    <t>res=1.89ms</t>
+  </si>
+  <si>
+    <t>res=226.32ms</t>
+  </si>
+  <si>
+    <t>res=23.12ms</t>
+  </si>
+  <si>
+    <t>res=127.32ms a volte 7/8ms a volte 200 e passa</t>
+  </si>
+  <si>
+    <t>res=11.27ms</t>
+  </si>
+  <si>
+    <t>res=7.46ms</t>
+  </si>
+  <si>
+    <t>res=11.78ms</t>
   </si>
 </sst>
 </file>
@@ -546,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EC15D5-202A-4B2F-854A-DC0ACE408EBF}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,7 +1029,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,7 +1057,7 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,7 +1085,7 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,7 +1127,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">

--- a/GraficiPrestazioni.xlsx
+++ b/GraficiPrestazioni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\GitHub\ftp-over-gobackn-udp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47EA37C-4B93-4FC1-A643-5ADDC7424B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3820D1-CE0C-4E31-A8BF-119E64B8157A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{BA40647B-F143-4A9D-A594-5223857CDD2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA40647B-F143-4A9D-A594-5223857CDD2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="93">
   <si>
     <t>res=</t>
   </si>
@@ -253,14 +253,82 @@
   </si>
   <si>
     <t>res=11.78ms</t>
+  </si>
+  <si>
+    <t>res=2.34ms</t>
+  </si>
+  <si>
+    <t>res=2.83ms</t>
+  </si>
+  <si>
+    <t>res=2.53</t>
+  </si>
+  <si>
+    <t>res=2.03ms</t>
+  </si>
+  <si>
+    <t>res=11.39ms</t>
+  </si>
+  <si>
+    <t>res=2.65ms</t>
+  </si>
+  <si>
+    <t>res=2.17ms</t>
+  </si>
+  <si>
+    <t>res=3.55ms</t>
+  </si>
+  <si>
+    <t>res=2.454ms</t>
+  </si>
+  <si>
+    <t>res=8.59ms</t>
+  </si>
+  <si>
+    <t>res=3.31ms</t>
+  </si>
+  <si>
+    <t>res=2.45ms</t>
+  </si>
+  <si>
+    <t>res=2.13ms</t>
+  </si>
+  <si>
+    <t>res=7.65ms</t>
+  </si>
+  <si>
+    <t>res=244.73ms</t>
+  </si>
+  <si>
+    <t>res=28.6ms</t>
+  </si>
+  <si>
+    <t>res=13.25ms</t>
+  </si>
+  <si>
+    <t>res=7.45ms</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>PUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -288,8 +356,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -604,26 +673,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EC15D5-202A-4B2F-854A-DC0ACE408EBF}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,13 +691,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,13 +705,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,13 +719,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,13 +733,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +747,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +761,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +775,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +789,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +803,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +817,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +831,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +845,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +859,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +873,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +887,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,13 +901,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,13 +915,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,27 +943,27 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -911,13 +971,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,13 +985,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,13 +999,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -953,13 +1013,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -967,13 +1027,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -981,13 +1041,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,13 +1055,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,13 +1069,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,13 +1083,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1037,13 +1097,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,13 +1111,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,13 +1125,13 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1079,13 +1139,13 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,13 +1153,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,13 +1167,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,13 +1181,13 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,13 +1195,13 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1149,13 +1209,13 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1163,27 +1223,27 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1191,13 +1251,13 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1205,13 +1265,13 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,13 +1279,13 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1233,13 +1293,13 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,13 +1307,13 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1261,13 +1321,13 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,13 +1335,13 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1289,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1303,13 +1363,13 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,13 +1377,13 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,13 +1391,13 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1345,13 +1405,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,13 +1419,13 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1373,13 +1433,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,13 +1447,13 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1401,13 +1461,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1415,13 +1475,13 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,13 +1489,13 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,27 +1503,27 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1471,13 +1531,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1485,13 +1545,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,13 +1559,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,13 +1573,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1527,13 +1587,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,13 +1601,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,13 +1615,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,13 +1629,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1583,13 +1643,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1657,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1671,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1685,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1699,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1713,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1727,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1741,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1755,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1769,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,16 +1783,316 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GraficiPrestazioni.xlsx
+++ b/GraficiPrestazioni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\GitHub\ftp-over-gobackn-udp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3820D1-CE0C-4E31-A8BF-119E64B8157A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F44925-E770-4050-B834-1B64901EEC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA40647B-F143-4A9D-A594-5223857CDD2C}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="93">
-  <si>
-    <t>res=</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="110">
   <si>
     <t>P=0</t>
   </si>
@@ -313,6 +310,60 @@
   </si>
   <si>
     <t>PUT</t>
+  </si>
+  <si>
+    <t>res=1.96ms</t>
+  </si>
+  <si>
+    <t>res=1.75ms</t>
+  </si>
+  <si>
+    <t>res=1.71ms</t>
+  </si>
+  <si>
+    <t>res=1.7ms</t>
+  </si>
+  <si>
+    <t>res=8.27ms</t>
+  </si>
+  <si>
+    <t>res=1.79ms</t>
+  </si>
+  <si>
+    <t>res=1.74ms</t>
+  </si>
+  <si>
+    <t>res=1.78ms</t>
+  </si>
+  <si>
+    <t>res=1.82ms</t>
+  </si>
+  <si>
+    <t>res=7.34ms</t>
+  </si>
+  <si>
+    <t>res=1.9ms</t>
+  </si>
+  <si>
+    <t>res=1.81ms</t>
+  </si>
+  <si>
+    <t>res=7.12ms</t>
+  </si>
+  <si>
+    <t>res=185.37ms</t>
+  </si>
+  <si>
+    <t>res=23.4ms</t>
+  </si>
+  <si>
+    <t>res=13.24ms</t>
+  </si>
+  <si>
+    <t>res=6.14ms</t>
+  </si>
+  <si>
+    <t>res=8.74ms</t>
   </si>
 </sst>
 </file>
@@ -675,1420 +726,1420 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EC15D5-202A-4B2F-854A-DC0ACE408EBF}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>11</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
         <v>1</v>
       </c>
-      <c r="B84" t="s">
-        <v>2</v>
-      </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
         <v>1</v>
       </c>
-      <c r="B89" t="s">
-        <v>2</v>
-      </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
         <v>1</v>
       </c>
-      <c r="B94" t="s">
-        <v>2</v>
-      </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
         <v>1</v>
       </c>
-      <c r="B99" t="s">
-        <v>2</v>
-      </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/GraficiPrestazioni.xlsx
+++ b/GraficiPrestazioni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\GitHub\ftp-over-gobackn-udp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F44925-E770-4050-B834-1B64901EEC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DA53AD-13DE-4448-AD8D-257B5719E363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA40647B-F143-4A9D-A594-5223857CDD2C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="110">
   <si>
     <t>P=0</t>
   </si>
@@ -724,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EC15D5-202A-4B2F-854A-DC0ACE408EBF}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,32 +1017,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,13 +1036,13 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,13 +1050,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1078,13 +1064,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,13 +1092,13 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,13 +1106,13 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,13 +1120,13 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1148,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,13 +1148,13 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1176,13 +1162,13 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,13 +1176,13 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,13 +1190,13 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1218,13 +1204,13 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,13 +1218,13 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1246,13 +1232,13 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,13 +1246,13 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1288,41 +1274,27 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1330,13 +1302,13 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,13 +1316,13 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1358,13 +1330,13 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1372,13 +1344,13 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,13 +1358,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1400,13 +1372,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1414,13 +1386,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1428,13 +1400,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1442,13 +1414,13 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1456,13 +1428,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,13 +1442,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1484,13 +1456,13 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,13 +1470,13 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1512,13 +1484,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,13 +1498,13 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,13 +1512,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,13 +1526,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,55 +1540,41 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,13 +1582,13 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1638,13 +1596,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1666,13 +1624,13 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1680,13 +1638,13 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1694,13 +1652,13 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1708,13 +1666,13 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,13 +1680,13 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1736,13 +1694,13 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,13 +1708,13 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1764,13 +1722,13 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1778,13 +1736,13 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1792,13 +1750,13 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,13 +1764,13 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1820,13 +1778,13 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,13 +1792,13 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1848,60 +1806,60 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>91</v>
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" t="s">
-        <v>107</v>
+      <c r="A86" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1923,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1951,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1979,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2007,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2049,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2063,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2077,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2091,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2105,13 +2063,13 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2119,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2133,13 +2091,335 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
         <v>15</v>
       </c>
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
